--- a/resources/Admission Type Definitions.xlsx
+++ b/resources/Admission Type Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisonwilde/Library/Mobile Documents/com~apple~CloudDocs/PhD/Covid19/Consortium/Children/Descriptive Cohort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisonwilde/Library/Mobile Documents/com~apple~CloudDocs/PhD/Covid19/Consortium/Children/Descriptive Cohort/CCU029_01/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390A8E92-5582-6248-AC10-960C4A1AAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035B7F92-F26B-9247-BB32-823F08FA384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="680" windowWidth="45680" windowHeight="25020" xr2:uid="{660FEC27-8849-7944-ACDF-DA086F916D20}"/>
+    <workbookView xWindow="34760" yWindow="-15860" windowWidth="38000" windowHeight="20700" xr2:uid="{660FEC27-8849-7944-ACDF-DA086F916D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Main groups" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Group</t>
   </si>
@@ -44,30 +44,9 @@
     <t>U071,U072,U073,U074</t>
   </si>
   <si>
-    <t>U075,U109,M303,R65</t>
-  </si>
-  <si>
     <t>Population considered for inclusion</t>
   </si>
   <si>
-    <t>A01,A02,A03,A04,A05,A37,A38,A39,A40,A41,B95</t>
-  </si>
-  <si>
-    <t>A40,A41,A483,A49,A818,A870,A878,A89,A858,A86,A879,B09,B34,B95,B96,B97,E10,E11,E14,E16,G4,J02,J03,J09,J10,J11,J12,J13,J14,J15,J16,J17,J20,J21,J3,J85,J86,K859,P22,P23,P24,P26,P27,P28,P29,P3,P74,R70,R71,R72,R73,R74,R79,Z038,Z039,U075,U109,M303,R65</t>
-  </si>
-  <si>
-    <t>A084,A083,A085,A090,A099,A419,B348,B309,B338,B349,B972,B99,D762,E86,E87,H669,I1254,I126,I1471,I254,I26,I288,I30,I31,I32,I33,I40,I41,I42,I44,I45,I46,I47,I48,I49,I50,I51,I63,I65,I66,I67,I880,I9,J00,J01,J04,J05,J06,J18,J22,J40,J80,J81,J83,J90,J93,J96,J98,K297,K529,M255,M791,M796,N179,P928,P25,P92,R0,R10,R11,R13,R17,R21,R25,R26,R27,R29,R34,R40,R41,R42,R43,R44,R47,R5,R6,R768,R845,R89,R90,R93,R94,U049,U070</t>
-  </si>
-  <si>
-    <t>B20,B21,B22,B24,D3,C,D0,D1,D2,D4,D55,D56,D57,D58,D59,D6,D70,D71,D72,D730,D731,D761,D76,D8,E10,E11,E12,E13,E14,E20,E21,E22,E23,E24,E25,E26,E27,E6,E7,E80,E81,E82,E83,E84,E850,E88,E89,F7,F8,G1,G2,G3,G7,G8,I10,I11,I12,I13,I15,I27,I34,I35,I36,I37,I42,I43,I675,J380,J386,J41,J42,J43,J44,J45,J46,J47,J82,J84,J99,K21,K22,K44,K50,K51,K52,K71,K720,K721,K740,K741,K744,K745,K746,K75,K76,K9,M3,N0,N10,N11,N12,N13,N15,N18,P0,Q0,Q2,Q3,Q60,Q61,Q9,R161</t>
-  </si>
-  <si>
-    <t>B20,B21,B22,B23,B24,F7,F8,H669,K44,Y4,Y5,Z038,Z039,U075,U109,M303,R65</t>
-  </si>
-  <si>
-    <t>A00,A01,A02,A03,A04,A05,A06,A07,A080,A081,A082,A15,A16,A17,A18,A19,A2,A3,A5,A6,B00,B01,B02,B03,B04,B05,B06,B07,B08,B1,B2,B3,B4,B5,B6,B7,B8,D50,D51,D52,D53,D73,E0,E2,E3,E5,F,G0,G5,G6,G9,H,I0,I60,I61,I62,I7,I8,J6,J95,K0,K1,K20,K25,K26,K27,K28,K29,K3,K4,K55,K56,K590,K58,K59,K6,K8,K9,L0,L2,L3,L4,L5,L6,L72,L73,L8,L9,M0,M1,M2,M4,M5,M6,M7,M8,M9,N141,N2,N3,N39,N4,N5,N6,N7,N8,N9,O,P1,P20,P21,P50,P51,P52,P53,P54,P55,P56,P57,P58,P59,P6,P70,P71,P72,P75,P76,P77,P78,P8,P90,P91,P94,P95,P96,Q1,Q4,Q5,Q6,Q7,Q8,R12,R14,R15,R19,R20,R22,R23,R29,R30,R31,R32,R33,R35,R39,R45,R46,R80,R81,R82,R93,U076,U82,U83,S,T,V,W,X,Y,Z</t>
-  </si>
-  <si>
     <t>Typing hierarchy order</t>
   </si>
   <si>
@@ -80,13 +59,7 @@
     <t>Exclude Non-Primary Codes</t>
   </si>
   <si>
-    <t xml:space="preserve">Type C: Incidental cases where there is a primary diagnosis which appears unrelated to SARS-CoV-2 </t>
-  </si>
-  <si>
     <t>Nosocomial: As defined by Healthcare-associated Covid-19 in England: A national data linkage study. Bhattacharya, Alex et al. Journal of Infection, Volume 83, Issue 5, 565 – 572</t>
-  </si>
-  <si>
-    <t>PIMS-TS: All cases, with sepsis explcitly excluded due to code overlap</t>
   </si>
   <si>
     <t>Type A2: A Covid-19 symptom or typical/plausible presentations of Covid-19 is a primary reason for admission, alongside the presence of other evidence of SARS-CoV-2 infection via either a code or test</t>
@@ -247,6 +220,37 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>A00,A01,A02,A03,A04,A05,A06,A07,A080,A081,A082,A15,A16,A17,A18,A19,A2,A3,A5,A6,B00,B01,B02,B03,B04,B05,B06,B07,B08,B1,B26,B3,B4,B5,B6,B7,B8,D1,D2,D30,D31,D32,D33,D34,D35,D36,D50,D51,D52,D53,D638,D649,D689,D69,D73,E0,E15,E16,E2,E3,E5,E87,F0,F1,F2,F3,F4,F5,F6,F70,F71,F80,F81,F82,F9,G0,G250,G251,G252,G253,G254,G255,G256,G258,G43,G44,G5,G6,G9,H,I01,I02,I33,I38,I39,I6,I7,I8,J6,J95,K0,K1,K2,K3,K4,K55,K56,K58,K59,K6,K77,K8,K91,K92,K93,L0,L2,L3,L4,L5,L6,L72,L73,L8,L9,M00,M01,M02,M03,M1,M2,M4,M5,M6,M7,M8,M9,N10,N14,N16,N2,N3,N39,N4,N5,N6,N7,N8,N9,O,P00,P01,P02,P03,P04,P08,P1,P20,P21,P24,P26,P3,P50,P51,P52,P53,P54,P55,P56,P57,P58,P59,P6,P70,P71,P72,P75,P76,P77,P78,P8,P90,P91,P94,P95,P96,Q1,Q38,Q5,Q66,Q68,Q69,Q70,Q71,Q72,Q73,Q74,Q82,Q84,Q86,Q95,Q96,Q97,Q98,Q99,R04,R01,R03,R09,R12,R14,R15,R19,R20,R22,R23,R25,R26,R27,R290,R291,R292,R294,R30,R31,R32,R33,R35,R39,R44,R45,R46,R47,R60,R61,R631,R632,R680,R768,R80,R81,R82,R89,R900,R93,U070,U076,U82,U83,S,T,V,W,X,Y,Z</t>
+  </si>
+  <si>
+    <t>B309,B338,B34,H669,I880,K297,K44,K859,Y4,Y5,Z038,Z039,U075,M303,R65</t>
+  </si>
+  <si>
+    <t>U075,M303,R65</t>
+  </si>
+  <si>
+    <t>A00,A01,A02,A03,A04,A05,A06,A07,A080,A081,A082,A17,A18,A19,A2,A3,A4,A5,A6,A7,A80,A810,A811,A812,A82,A83,A84,A85,A870,A871,A880,A881,A9,B01,B02,B03,B04,B05,B06,B07,B08,B15,B16,B17,B18,B2,B300,B301,B303,B330,B331,B333,B334,B340,B341,B343,B344,B4,B5,B6,B7,B8,B90,B91,B92,B94,B95,B96,B970,B971,B973,B974,B975,B976,B977,B98,C,D37,D38,D4,D5,D60,D61,D62,D63,D65,D66,D67,D8,E883,G00,G01,G02,G030,G031,G032,G041,G042,G05,G06,G07,G08,I0,I31,132,I35,I36,I37,I38,I39,Q2,J020,J030,J09,J10,J11,J120,J121,J122,J123,J13,J14,J15,J160,J17,J200,J201,J202,J203,J204,J205,J206,J207,J210,J211,J218,J36,J390,J391,J69,J85,J86,J94,J95,L0,M0,M01,M03,O,P0,P1,P21,P23,P24,P26,P350,P351,P352,P354,P354,P36,P37,P50,P51,P54,P75,P76,P77,P780,P781,P782,P783,P960,R02,R572,S,T,V,Z958,Z982,Z948</t>
+  </si>
+  <si>
+    <t>A084,A083,A085,A090,A099,A419,B309,B338,B348,B349,B972,B99,D762,E86,G259,H669,I254,I26,I40,I41,I42,I46,I47,I880,I95,J00,J01,J029,J039,J04,J05,J06,J18,J22,J40,J80,J81,J93,J96,J98,K297,M255,N179,P25,P92,R00,R05,R06,R07,R098,R10,R11,R13,R21,R298,R34,R40,R41,R42,R43,R50,R51,R52,R53,R55,R56,R57,R59,R630,R633,R634,R636,R638,R681,R69,R845,U049</t>
+  </si>
+  <si>
+    <t>A01,A02,A03,A04,A05,A06,A06,A07,A080,A081,A082,B25,B27,J020,J030,J09,J10,J11,J12,J13,J14,J15,J16,J17,J200,J201,J202,J203,J204,J205,J206,J207,J210,J211</t>
+  </si>
+  <si>
+    <t>A01,A02,A03,A04,A05,A06,A06,A07,A080,A081,A082,A40,A41,A483,A49,A818,A858,A86,A879,A870,A878,A89,B09,B25,B27,B34,B95,B96,B97,E10,E878,G41,I30,I32,J02,J03,J09,J10,J11,J12,J13,J14,J15,J16,J17,J20,J21,J3,J85,J86,J90,K859,M303,P22,P23,P28,P29,P74,R17,R65,R70,R71,R72,R73,R74,R79,U075,Z038,Z039</t>
+  </si>
+  <si>
+    <t>B20,B21,B22,B24,D3,C,D0,D37,D38,D39,D4,D55,D56,D57,D58,D59,D60,D61,D640,D644,D66,D67,D680,D681,D682,D70,D71,D720,D730,D731,D761,D763,D8,E00,E10,E11,E12,E13,E14,E20,E21,E22,E23,E24,E25,E26,E27,E4,E6,E7,E80,E83,E84,E85,E88,E89,F72,F73,F78,F79,F83,F84,F88,F89,G1,G20,G21,G22,G23,G24,G3,G40,G45,G46,G47,G7,G8,G91,G94,I05,I06,I07,I08,I09,I10,I11,I12,I13,I15,I27,I28,I31,I34,I35,I36,I37,I42,I43,I44,I45,I47,I48,I49,I50,I51,I52,J380,J386,J41,J42,J43,J44,J45,J46,J47,J82,J84,J984,J99,K44,K50,K51,K52,K71,K72,K73,K74,K75,K76,K90,L1,L85,L93,L94,M05,M06,M07,M08,M09,M300,M301,M302,M31,M321,M328,M329,M33,M34,M35,M41,M42,M43,N0,N11,N12,N13,N15,N18,N19,P05,P07,P27,Q0,Q2,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q39,Q4,Q60,Q61,Q62,Q63,Q64,Q65,Q67,Q75,Q76,Q77,Q78,Q79,Q80,Q81,Q85,Q87,Q89,Q90,Q91,Q92,Q93,R16,R62,R568,R94</t>
+  </si>
+  <si>
+    <t>Type C: Incidental cases where there is a primary diagnosis which appears unrelated to SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>PIMS-TS: All cases, with sepsis and other bacterial disease conditions explicitly excluded due to code overlap 
+(NOTE: exclude codes do not apply when U075 is present)</t>
   </si>
 </sst>
 </file>
@@ -322,13 +326,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -705,27 +709,27 @@
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -737,59 +741,59 @@
     </row>
     <row r="3" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
-        <v>3</v>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>2</v>
@@ -801,54 +805,58 @@
     </row>
     <row r="6" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>3</v>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -857,13 +865,13 @@
     </row>
     <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
